--- a/outputs-HGR-r202/c__Fusobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Fusobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,52 +484,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88654_1.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88654_2.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/c__Fusobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Fusobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,24 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88709.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>o__Fusobacteriales</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/c__Fusobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Fusobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>o__Fusobacteriales</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>o__Fusobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -487,6 +497,11 @@
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>o__Fusobacteriales</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>o__Fusobacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Fusobacteriia.xlsx
+++ b/outputs-HGR-r202/c__Fusobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,40 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>10990.46771063232</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Fusobacteriales</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88709.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>o__Fusobacteriales</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>o__Fusobacteriales</t>
         </is>
